--- a/xlsx-stream-d-date-cell.xlsx
+++ b/xlsx-stream-d-date-cell.xlsx
@@ -262,7 +262,7 @@
       <c r="B11" t="inlineStr">
         <f>CONCATENATE(A1,B2)</f>
         <is>
-          <t>ok</t>
+          <t>String1</t>
         </is>
       </c>
     </row>
